--- a/output/ejecucion_2/gridsearch_results/base_17_19/base_17_19_results_gs_rf_s.xlsx
+++ b/output/ejecucion_2/gridsearch_results/base_17_19/base_17_19_results_gs_rf_s.xlsx
@@ -561,16 +561,16 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>6.59579291343689</v>
+        <v>11.03094940185547</v>
       </c>
       <c r="C2">
-        <v>1.654588779746769</v>
+        <v>2.900438511318496</v>
       </c>
       <c r="D2">
-        <v>3.052817821502686</v>
+        <v>3.888995933532715</v>
       </c>
       <c r="E2">
-        <v>0.6722131726623393</v>
+        <v>0.7781467599644194</v>
       </c>
       <c r="F2">
         <v>10</v>
@@ -614,16 +614,16 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>15.70903244018555</v>
+        <v>26.21774740219116</v>
       </c>
       <c r="C3">
-        <v>0.5455536902777792</v>
+        <v>0.4800496862464225</v>
       </c>
       <c r="D3">
-        <v>4.43402509689331</v>
+        <v>5.169474315643311</v>
       </c>
       <c r="E3">
-        <v>0.5611766827678856</v>
+        <v>0.6537572839844806</v>
       </c>
       <c r="F3">
         <v>10</v>
@@ -667,16 +667,16 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>34.88197259902954</v>
+        <v>57.05495495796204</v>
       </c>
       <c r="C4">
-        <v>1.160011865219114</v>
+        <v>1.656429687416189</v>
       </c>
       <c r="D4">
-        <v>3.717067575454712</v>
+        <v>4.985956287384033</v>
       </c>
       <c r="E4">
-        <v>0.6637538868566346</v>
+        <v>0.8183898115016459</v>
       </c>
       <c r="F4">
         <v>10</v>
@@ -720,16 +720,16 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>14.84843144416809</v>
+        <v>22.69843792915344</v>
       </c>
       <c r="C5">
-        <v>2.423897012975606</v>
+        <v>3.24665705132628</v>
       </c>
       <c r="D5">
-        <v>3.969496154785156</v>
+        <v>5.089470529556275</v>
       </c>
       <c r="E5">
-        <v>1.125499931592808</v>
+        <v>1.13058921241847</v>
       </c>
       <c r="F5">
         <v>10</v>
@@ -773,16 +773,16 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>23.78505563735962</v>
+        <v>40.22680702209473</v>
       </c>
       <c r="C6">
-        <v>0.389924423454272</v>
+        <v>0.5741442774629947</v>
       </c>
       <c r="D6">
-        <v>4.249240827560425</v>
+        <v>4.661275053024292</v>
       </c>
       <c r="E6">
-        <v>0.5665521396589245</v>
+        <v>0.3368734766472548</v>
       </c>
       <c r="F6">
         <v>10</v>
@@ -826,16 +826,16 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>49.20228147506714</v>
+        <v>80.70661687850952</v>
       </c>
       <c r="C7">
-        <v>1.037502983399901</v>
+        <v>1.041117615639789</v>
       </c>
       <c r="D7">
-        <v>4.235258913040161</v>
+        <v>5.893317937850952</v>
       </c>
       <c r="E7">
-        <v>0.14139267488402</v>
+        <v>0.650890739672054</v>
       </c>
       <c r="F7">
         <v>10</v>
@@ -879,16 +879,16 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>19.02982797622681</v>
+        <v>29.25475187301636</v>
       </c>
       <c r="C8">
-        <v>2.115689991385959</v>
+        <v>2.869813152706318</v>
       </c>
       <c r="D8">
-        <v>4.613009929656982</v>
+        <v>5.775625991821289</v>
       </c>
       <c r="E8">
-        <v>0.8296530227185255</v>
+        <v>0.5893461229787542</v>
       </c>
       <c r="F8">
         <v>10</v>
@@ -932,16 +932,16 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>30.39466791152954</v>
+        <v>50.59985866546631</v>
       </c>
       <c r="C9">
-        <v>1.083024987688212</v>
+        <v>1.168561863773879</v>
       </c>
       <c r="D9">
-        <v>5.021211814880371</v>
+        <v>5.751600646972657</v>
       </c>
       <c r="E9">
-        <v>0.5511017980648669</v>
+        <v>1.00650082336506</v>
       </c>
       <c r="F9">
         <v>10</v>
@@ -985,16 +985,16 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>60.60617957115173</v>
+        <v>98.78755726814271</v>
       </c>
       <c r="C10">
-        <v>0.595974983150025</v>
+        <v>1.03160848986935</v>
       </c>
       <c r="D10">
-        <v>4.79041633605957</v>
+        <v>6.214165687561035</v>
       </c>
       <c r="E10">
-        <v>0.434482374805512</v>
+        <v>0.689082093152031</v>
       </c>
       <c r="F10">
         <v>10</v>
@@ -1038,16 +1038,16 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>16.67046217918396</v>
+        <v>26.40060439109802</v>
       </c>
       <c r="C11">
-        <v>1.171935856917688</v>
+        <v>0.8514183234422725</v>
       </c>
       <c r="D11">
-        <v>4.762467861175537</v>
+        <v>6.090818929672241</v>
       </c>
       <c r="E11">
-        <v>1.219520902076356</v>
+        <v>0.4525773703045233</v>
       </c>
       <c r="F11">
         <v>20</v>
@@ -1091,16 +1091,16 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>24.53821473121643</v>
+        <v>39.90483603477478</v>
       </c>
       <c r="C12">
-        <v>0.440063776017389</v>
+        <v>1.421417443056876</v>
       </c>
       <c r="D12">
-        <v>3.227100038528442</v>
+        <v>4.830416822433472</v>
       </c>
       <c r="E12">
-        <v>1.130994661116377</v>
+        <v>0.9180551570178452</v>
       </c>
       <c r="F12">
         <v>20</v>
@@ -1144,16 +1144,16 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>47.889999294281</v>
+        <v>76.62234206199646</v>
       </c>
       <c r="C13">
-        <v>1.022576765990304</v>
+        <v>1.074080579210898</v>
       </c>
       <c r="D13">
-        <v>4.293985891342163</v>
+        <v>5.779075860977173</v>
       </c>
       <c r="E13">
-        <v>0.9704783260993708</v>
+        <v>1.221785201525525</v>
       </c>
       <c r="F13">
         <v>20</v>
@@ -1197,16 +1197,16 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>20.86191182136536</v>
+        <v>31.65196008682251</v>
       </c>
       <c r="C14">
-        <v>2.648606830202033</v>
+        <v>1.763442326728507</v>
       </c>
       <c r="D14">
-        <v>3.715165901184082</v>
+        <v>5.138595628738403</v>
       </c>
       <c r="E14">
-        <v>1.425660336401075</v>
+        <v>1.220209866047147</v>
       </c>
       <c r="F14">
         <v>20</v>
@@ -1250,16 +1250,16 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>31.28450121879577</v>
+        <v>51.91435370445252</v>
       </c>
       <c r="C15">
-        <v>0.369078617892811</v>
+        <v>1.122775552425942</v>
       </c>
       <c r="D15">
-        <v>5.309138822555542</v>
+        <v>6.240619993209839</v>
       </c>
       <c r="E15">
-        <v>0.910019419806505</v>
+        <v>0.4262736223216003</v>
       </c>
       <c r="F15">
         <v>20</v>
@@ -1303,16 +1303,16 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>67.47347135543824</v>
+        <v>106.7499261379242</v>
       </c>
       <c r="C16">
-        <v>0.919600004179604</v>
+        <v>0.9303724392277763</v>
       </c>
       <c r="D16">
-        <v>4.105189609527588</v>
+        <v>5.976440954208374</v>
       </c>
       <c r="E16">
-        <v>1.025390163332435</v>
+        <v>0.5046979648638522</v>
       </c>
       <c r="F16">
         <v>20</v>
@@ -1356,16 +1356,16 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>25.50177211761475</v>
+        <v>38.92591958045959</v>
       </c>
       <c r="C17">
-        <v>3.705648525885424</v>
+        <v>3.627263928299496</v>
       </c>
       <c r="D17">
-        <v>4.297619485855103</v>
+        <v>5.502989721298218</v>
       </c>
       <c r="E17">
-        <v>0.4052655990894</v>
+        <v>0.1669140813718097</v>
       </c>
       <c r="F17">
         <v>20</v>
@@ -1409,16 +1409,16 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>40.37818002700806</v>
+        <v>64.96034150123596</v>
       </c>
       <c r="C18">
-        <v>1.665410000102538</v>
+        <v>1.892138842750549</v>
       </c>
       <c r="D18">
-        <v>5.627576017379761</v>
+        <v>6.546144294738769</v>
       </c>
       <c r="E18">
-        <v>1.035830404832041</v>
+        <v>1.140148268389179</v>
       </c>
       <c r="F18">
         <v>20</v>
@@ -1462,16 +1462,16 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>79.20656309127807</v>
+        <v>127.5212714195251</v>
       </c>
       <c r="C19">
-        <v>0.5085125006916241</v>
+        <v>1.815656118659569</v>
       </c>
       <c r="D19">
-        <v>4.124721527099609</v>
+        <v>6.601006746292114</v>
       </c>
       <c r="E19">
-        <v>0.8628150334332181</v>
+        <v>1.058976440571064</v>
       </c>
       <c r="F19">
         <v>20</v>
@@ -1515,16 +1515,16 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>19.5523669719696</v>
+        <v>28.33814463615418</v>
       </c>
       <c r="C20">
-        <v>0.6469710000326288</v>
+        <v>1.009625640094437</v>
       </c>
       <c r="D20">
-        <v>5.177287673950195</v>
+        <v>6.567970037460327</v>
       </c>
       <c r="E20">
-        <v>0.4830923115459451</v>
+        <v>0.5846399513562661</v>
       </c>
       <c r="F20">
         <v>30</v>
@@ -1568,16 +1568,16 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>27.40815272331238</v>
+        <v>42.11521873474121</v>
       </c>
       <c r="C21">
-        <v>0.9290634652494845</v>
+        <v>2.837678864409744</v>
       </c>
       <c r="D21">
-        <v>3.330718660354614</v>
+        <v>6.278551816940308</v>
       </c>
       <c r="E21">
-        <v>0.6384380265649007</v>
+        <v>1.08252065761571</v>
       </c>
       <c r="F21">
         <v>30</v>
@@ -1621,16 +1621,16 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>50.15527791976929</v>
+        <v>81.73316106796264</v>
       </c>
       <c r="C22">
-        <v>1.022935800212696</v>
+        <v>1.113138462938557</v>
       </c>
       <c r="D22">
-        <v>4.227071523666382</v>
+        <v>6.044898891448975</v>
       </c>
       <c r="E22">
-        <v>0.8483720256228739</v>
+        <v>1.060285792829159</v>
       </c>
       <c r="F22">
         <v>30</v>
@@ -1674,16 +1674,16 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>21.08099489212036</v>
+        <v>32.52745990753174</v>
       </c>
       <c r="C23">
-        <v>2.261787829746163</v>
+        <v>3.310248963780496</v>
       </c>
       <c r="D23">
-        <v>4.316689014434814</v>
+        <v>6.023776006698609</v>
       </c>
       <c r="E23">
-        <v>1.436535347701827</v>
+        <v>1.139573217482018</v>
       </c>
       <c r="F23">
         <v>30</v>
@@ -1727,16 +1727,16 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>32.95293703079223</v>
+        <v>53.71194672584534</v>
       </c>
       <c r="C24">
-        <v>1.896565246683714</v>
+        <v>1.58858541641288</v>
       </c>
       <c r="D24">
-        <v>5.735159683227539</v>
+        <v>6.650436401367188</v>
       </c>
       <c r="E24">
-        <v>0.5429586387072921</v>
+        <v>1.298080188586761</v>
       </c>
       <c r="F24">
         <v>30</v>
@@ -1780,16 +1780,16 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>71.45826587677001</v>
+        <v>110.3910439491272</v>
       </c>
       <c r="C25">
-        <v>0.6181850488522824</v>
+        <v>1.197812174073664</v>
       </c>
       <c r="D25">
-        <v>4.286511325836182</v>
+        <v>6.421145534515381</v>
       </c>
       <c r="E25">
-        <v>1.695308606408465</v>
+        <v>0.4280962573169864</v>
       </c>
       <c r="F25">
         <v>30</v>
@@ -1833,16 +1833,16 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>26.47308316230774</v>
+        <v>40.54217352867126</v>
       </c>
       <c r="C26">
-        <v>3.45272487204081</v>
+        <v>3.81946221422125</v>
       </c>
       <c r="D26">
-        <v>4.506705904006958</v>
+        <v>6.164219284057618</v>
       </c>
       <c r="E26">
-        <v>0.9357481844085763</v>
+        <v>0.501993601991974</v>
       </c>
       <c r="F26">
         <v>30</v>
@@ -1886,16 +1886,16 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>42.08620166778564</v>
+        <v>67.59354681968689</v>
       </c>
       <c r="C27">
-        <v>1.891546559443289</v>
+        <v>2.407603284674118</v>
       </c>
       <c r="D27">
-        <v>4.862475824356079</v>
+        <v>6.581328439712524</v>
       </c>
       <c r="E27">
-        <v>0.3779375579352853</v>
+        <v>1.075537712858773</v>
       </c>
       <c r="F27">
         <v>30</v>
@@ -1939,16 +1939,16 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>63.93112006187439</v>
+        <v>103.883521270752</v>
       </c>
       <c r="C28">
-        <v>8.072338407690456</v>
+        <v>12.65926076065134</v>
       </c>
       <c r="D28">
-        <v>1.552179670333862</v>
+        <v>2.531482315063477</v>
       </c>
       <c r="E28">
-        <v>0.8495085983310565</v>
+        <v>1.396929458428706</v>
       </c>
       <c r="F28">
         <v>30</v>

--- a/output/ejecucion_2/gridsearch_results/base_17_19/base_17_19_results_gs_rf_s.xlsx
+++ b/output/ejecucion_2/gridsearch_results/base_17_19/base_17_19_results_gs_rf_s.xlsx
@@ -561,16 +561,16 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>11.03094940185547</v>
+        <v>6.59579291343689</v>
       </c>
       <c r="C2">
-        <v>2.900438511318496</v>
+        <v>1.654588779746769</v>
       </c>
       <c r="D2">
-        <v>3.888995933532715</v>
+        <v>3.052817821502686</v>
       </c>
       <c r="E2">
-        <v>0.7781467599644194</v>
+        <v>0.6722131726623393</v>
       </c>
       <c r="F2">
         <v>10</v>
@@ -614,16 +614,16 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>26.21774740219116</v>
+        <v>15.70903244018555</v>
       </c>
       <c r="C3">
-        <v>0.4800496862464225</v>
+        <v>0.5455536902777792</v>
       </c>
       <c r="D3">
-        <v>5.169474315643311</v>
+        <v>4.43402509689331</v>
       </c>
       <c r="E3">
-        <v>0.6537572839844806</v>
+        <v>0.5611766827678856</v>
       </c>
       <c r="F3">
         <v>10</v>
@@ -667,16 +667,16 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>57.05495495796204</v>
+        <v>34.88197259902954</v>
       </c>
       <c r="C4">
-        <v>1.656429687416189</v>
+        <v>1.160011865219114</v>
       </c>
       <c r="D4">
-        <v>4.985956287384033</v>
+        <v>3.717067575454712</v>
       </c>
       <c r="E4">
-        <v>0.8183898115016459</v>
+        <v>0.6637538868566346</v>
       </c>
       <c r="F4">
         <v>10</v>
@@ -720,16 +720,16 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>22.69843792915344</v>
+        <v>14.84843144416809</v>
       </c>
       <c r="C5">
-        <v>3.24665705132628</v>
+        <v>2.423897012975606</v>
       </c>
       <c r="D5">
-        <v>5.089470529556275</v>
+        <v>3.969496154785156</v>
       </c>
       <c r="E5">
-        <v>1.13058921241847</v>
+        <v>1.125499931592808</v>
       </c>
       <c r="F5">
         <v>10</v>
@@ -773,16 +773,16 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>40.22680702209473</v>
+        <v>23.78505563735962</v>
       </c>
       <c r="C6">
-        <v>0.5741442774629947</v>
+        <v>0.389924423454272</v>
       </c>
       <c r="D6">
-        <v>4.661275053024292</v>
+        <v>4.249240827560425</v>
       </c>
       <c r="E6">
-        <v>0.3368734766472548</v>
+        <v>0.5665521396589245</v>
       </c>
       <c r="F6">
         <v>10</v>
@@ -826,16 +826,16 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>80.70661687850952</v>
+        <v>49.20228147506714</v>
       </c>
       <c r="C7">
-        <v>1.041117615639789</v>
+        <v>1.037502983399901</v>
       </c>
       <c r="D7">
-        <v>5.893317937850952</v>
+        <v>4.235258913040161</v>
       </c>
       <c r="E7">
-        <v>0.650890739672054</v>
+        <v>0.14139267488402</v>
       </c>
       <c r="F7">
         <v>10</v>
@@ -879,16 +879,16 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>29.25475187301636</v>
+        <v>19.02982797622681</v>
       </c>
       <c r="C8">
-        <v>2.869813152706318</v>
+        <v>2.115689991385959</v>
       </c>
       <c r="D8">
-        <v>5.775625991821289</v>
+        <v>4.613009929656982</v>
       </c>
       <c r="E8">
-        <v>0.5893461229787542</v>
+        <v>0.8296530227185255</v>
       </c>
       <c r="F8">
         <v>10</v>
@@ -932,16 +932,16 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>50.59985866546631</v>
+        <v>30.39466791152954</v>
       </c>
       <c r="C9">
-        <v>1.168561863773879</v>
+        <v>1.083024987688212</v>
       </c>
       <c r="D9">
-        <v>5.751600646972657</v>
+        <v>5.021211814880371</v>
       </c>
       <c r="E9">
-        <v>1.00650082336506</v>
+        <v>0.5511017980648669</v>
       </c>
       <c r="F9">
         <v>10</v>
@@ -985,16 +985,16 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>98.78755726814271</v>
+        <v>60.60617957115173</v>
       </c>
       <c r="C10">
-        <v>1.03160848986935</v>
+        <v>0.595974983150025</v>
       </c>
       <c r="D10">
-        <v>6.214165687561035</v>
+        <v>4.79041633605957</v>
       </c>
       <c r="E10">
-        <v>0.689082093152031</v>
+        <v>0.434482374805512</v>
       </c>
       <c r="F10">
         <v>10</v>
@@ -1038,16 +1038,16 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>26.40060439109802</v>
+        <v>16.67046217918396</v>
       </c>
       <c r="C11">
-        <v>0.8514183234422725</v>
+        <v>1.171935856917688</v>
       </c>
       <c r="D11">
-        <v>6.090818929672241</v>
+        <v>4.762467861175537</v>
       </c>
       <c r="E11">
-        <v>0.4525773703045233</v>
+        <v>1.219520902076356</v>
       </c>
       <c r="F11">
         <v>20</v>
@@ -1091,16 +1091,16 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>39.90483603477478</v>
+        <v>24.53821473121643</v>
       </c>
       <c r="C12">
-        <v>1.421417443056876</v>
+        <v>0.440063776017389</v>
       </c>
       <c r="D12">
-        <v>4.830416822433472</v>
+        <v>3.227100038528442</v>
       </c>
       <c r="E12">
-        <v>0.9180551570178452</v>
+        <v>1.130994661116377</v>
       </c>
       <c r="F12">
         <v>20</v>
@@ -1144,16 +1144,16 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>76.62234206199646</v>
+        <v>47.889999294281</v>
       </c>
       <c r="C13">
-        <v>1.074080579210898</v>
+        <v>1.022576765990304</v>
       </c>
       <c r="D13">
-        <v>5.779075860977173</v>
+        <v>4.293985891342163</v>
       </c>
       <c r="E13">
-        <v>1.221785201525525</v>
+        <v>0.9704783260993708</v>
       </c>
       <c r="F13">
         <v>20</v>
@@ -1197,16 +1197,16 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>31.65196008682251</v>
+        <v>20.86191182136536</v>
       </c>
       <c r="C14">
-        <v>1.763442326728507</v>
+        <v>2.648606830202033</v>
       </c>
       <c r="D14">
-        <v>5.138595628738403</v>
+        <v>3.715165901184082</v>
       </c>
       <c r="E14">
-        <v>1.220209866047147</v>
+        <v>1.425660336401075</v>
       </c>
       <c r="F14">
         <v>20</v>
@@ -1250,16 +1250,16 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>51.91435370445252</v>
+        <v>31.28450121879577</v>
       </c>
       <c r="C15">
-        <v>1.122775552425942</v>
+        <v>0.369078617892811</v>
       </c>
       <c r="D15">
-        <v>6.240619993209839</v>
+        <v>5.309138822555542</v>
       </c>
       <c r="E15">
-        <v>0.4262736223216003</v>
+        <v>0.910019419806505</v>
       </c>
       <c r="F15">
         <v>20</v>
@@ -1303,16 +1303,16 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>106.7499261379242</v>
+        <v>67.47347135543824</v>
       </c>
       <c r="C16">
-        <v>0.9303724392277763</v>
+        <v>0.919600004179604</v>
       </c>
       <c r="D16">
-        <v>5.976440954208374</v>
+        <v>4.105189609527588</v>
       </c>
       <c r="E16">
-        <v>0.5046979648638522</v>
+        <v>1.025390163332435</v>
       </c>
       <c r="F16">
         <v>20</v>
@@ -1356,16 +1356,16 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>38.92591958045959</v>
+        <v>25.50177211761475</v>
       </c>
       <c r="C17">
-        <v>3.627263928299496</v>
+        <v>3.705648525885424</v>
       </c>
       <c r="D17">
-        <v>5.502989721298218</v>
+        <v>4.297619485855103</v>
       </c>
       <c r="E17">
-        <v>0.1669140813718097</v>
+        <v>0.4052655990894</v>
       </c>
       <c r="F17">
         <v>20</v>
@@ -1409,16 +1409,16 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>64.96034150123596</v>
+        <v>40.37818002700806</v>
       </c>
       <c r="C18">
-        <v>1.892138842750549</v>
+        <v>1.665410000102538</v>
       </c>
       <c r="D18">
-        <v>6.546144294738769</v>
+        <v>5.627576017379761</v>
       </c>
       <c r="E18">
-        <v>1.140148268389179</v>
+        <v>1.035830404832041</v>
       </c>
       <c r="F18">
         <v>20</v>
@@ -1462,16 +1462,16 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>127.5212714195251</v>
+        <v>79.20656309127807</v>
       </c>
       <c r="C19">
-        <v>1.815656118659569</v>
+        <v>0.5085125006916241</v>
       </c>
       <c r="D19">
-        <v>6.601006746292114</v>
+        <v>4.124721527099609</v>
       </c>
       <c r="E19">
-        <v>1.058976440571064</v>
+        <v>0.8628150334332181</v>
       </c>
       <c r="F19">
         <v>20</v>
@@ -1515,16 +1515,16 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>28.33814463615418</v>
+        <v>19.5523669719696</v>
       </c>
       <c r="C20">
-        <v>1.009625640094437</v>
+        <v>0.6469710000326288</v>
       </c>
       <c r="D20">
-        <v>6.567970037460327</v>
+        <v>5.177287673950195</v>
       </c>
       <c r="E20">
-        <v>0.5846399513562661</v>
+        <v>0.4830923115459451</v>
       </c>
       <c r="F20">
         <v>30</v>
@@ -1568,16 +1568,16 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>42.11521873474121</v>
+        <v>27.40815272331238</v>
       </c>
       <c r="C21">
-        <v>2.837678864409744</v>
+        <v>0.9290634652494845</v>
       </c>
       <c r="D21">
-        <v>6.278551816940308</v>
+        <v>3.330718660354614</v>
       </c>
       <c r="E21">
-        <v>1.08252065761571</v>
+        <v>0.6384380265649007</v>
       </c>
       <c r="F21">
         <v>30</v>
@@ -1621,16 +1621,16 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>81.73316106796264</v>
+        <v>50.15527791976929</v>
       </c>
       <c r="C22">
-        <v>1.113138462938557</v>
+        <v>1.022935800212696</v>
       </c>
       <c r="D22">
-        <v>6.044898891448975</v>
+        <v>4.227071523666382</v>
       </c>
       <c r="E22">
-        <v>1.060285792829159</v>
+        <v>0.8483720256228739</v>
       </c>
       <c r="F22">
         <v>30</v>
@@ -1674,16 +1674,16 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>32.52745990753174</v>
+        <v>21.08099489212036</v>
       </c>
       <c r="C23">
-        <v>3.310248963780496</v>
+        <v>2.261787829746163</v>
       </c>
       <c r="D23">
-        <v>6.023776006698609</v>
+        <v>4.316689014434814</v>
       </c>
       <c r="E23">
-        <v>1.139573217482018</v>
+        <v>1.436535347701827</v>
       </c>
       <c r="F23">
         <v>30</v>
@@ -1727,16 +1727,16 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>53.71194672584534</v>
+        <v>32.95293703079223</v>
       </c>
       <c r="C24">
-        <v>1.58858541641288</v>
+        <v>1.896565246683714</v>
       </c>
       <c r="D24">
-        <v>6.650436401367188</v>
+        <v>5.735159683227539</v>
       </c>
       <c r="E24">
-        <v>1.298080188586761</v>
+        <v>0.5429586387072921</v>
       </c>
       <c r="F24">
         <v>30</v>
@@ -1780,16 +1780,16 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>110.3910439491272</v>
+        <v>71.45826587677001</v>
       </c>
       <c r="C25">
-        <v>1.197812174073664</v>
+        <v>0.6181850488522824</v>
       </c>
       <c r="D25">
-        <v>6.421145534515381</v>
+        <v>4.286511325836182</v>
       </c>
       <c r="E25">
-        <v>0.4280962573169864</v>
+        <v>1.695308606408465</v>
       </c>
       <c r="F25">
         <v>30</v>
@@ -1833,16 +1833,16 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>40.54217352867126</v>
+        <v>26.47308316230774</v>
       </c>
       <c r="C26">
-        <v>3.81946221422125</v>
+        <v>3.45272487204081</v>
       </c>
       <c r="D26">
-        <v>6.164219284057618</v>
+        <v>4.506705904006958</v>
       </c>
       <c r="E26">
-        <v>0.501993601991974</v>
+        <v>0.9357481844085763</v>
       </c>
       <c r="F26">
         <v>30</v>
@@ -1886,16 +1886,16 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>67.59354681968689</v>
+        <v>42.08620166778564</v>
       </c>
       <c r="C27">
-        <v>2.407603284674118</v>
+        <v>1.891546559443289</v>
       </c>
       <c r="D27">
-        <v>6.581328439712524</v>
+        <v>4.862475824356079</v>
       </c>
       <c r="E27">
-        <v>1.075537712858773</v>
+        <v>0.3779375579352853</v>
       </c>
       <c r="F27">
         <v>30</v>
@@ -1939,16 +1939,16 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>103.883521270752</v>
+        <v>63.93112006187439</v>
       </c>
       <c r="C28">
-        <v>12.65926076065134</v>
+        <v>8.072338407690456</v>
       </c>
       <c r="D28">
-        <v>2.531482315063477</v>
+        <v>1.552179670333862</v>
       </c>
       <c r="E28">
-        <v>1.396929458428706</v>
+        <v>0.8495085983310565</v>
       </c>
       <c r="F28">
         <v>30</v>
